--- a/ims-excel.xlsx
+++ b/ims-excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="124">
   <si>
     <t>Admin</t>
   </si>
@@ -387,6 +387,15 @@
   </si>
   <si>
     <t>http://localhost:3000/follow/find_follow?by=(by)</t>
+  </si>
+  <si>
+    <t>Inquiry verify</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/inquiry/verify-otp</t>
+  </si>
+  <si>
+    <t>otp</t>
   </si>
 </sst>
 </file>
@@ -509,24 +518,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -536,6 +533,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -817,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q30"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,1153 +851,1160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="17"/>
+      <c r="G1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="17"/>
+      <c r="J1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="M1" s="5" t="s">
+      <c r="K1" s="17"/>
+      <c r="M1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="P1" s="5" t="s">
+      <c r="N1" s="17"/>
+      <c r="P1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="6"/>
+      <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="15"/>
+      <c r="G2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="J2" s="7" t="s">
+      <c r="H2" s="15"/>
+      <c r="J2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="M2" s="7" t="s">
+      <c r="K2" s="15"/>
+      <c r="M2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="P2" s="7" t="s">
+      <c r="N2" s="15"/>
+      <c r="P2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="10" t="s">
+      <c r="P3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="12" t="s">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="15"/>
+      <c r="G5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="J5" s="7" t="s">
+      <c r="H5" s="15"/>
+      <c r="J5" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12" t="s">
+      <c r="K5" s="15"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="J6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12" t="s">
+      <c r="M6" s="7"/>
+      <c r="N6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="12" t="s">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="15"/>
+      <c r="G7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="J7" s="7" t="s">
+      <c r="H7" s="15"/>
+      <c r="J7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12" t="s">
+      <c r="K7" s="15"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12" t="s">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="10" t="s">
+      <c r="J8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12" t="s">
+      <c r="M8" s="7"/>
+      <c r="N8" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="10" t="s">
+      <c r="P9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="G10" s="7" t="s">
+      <c r="E10" s="15"/>
+      <c r="G10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="J10" s="7" t="s">
+      <c r="H10" s="15"/>
+      <c r="J10" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12" t="s">
+      <c r="K10" s="15"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="D11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="B11" s="15"/>
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" s="10" t="s">
+      <c r="J11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12" t="s">
+      <c r="M11" s="7"/>
+      <c r="N11" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="10" t="s">
+      <c r="P11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="12" t="s">
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="15"/>
+      <c r="D13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="G13" s="7" t="s">
+      <c r="E13" s="15"/>
+      <c r="G13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="J13" s="7" t="s">
+      <c r="H13" s="15"/>
+      <c r="J13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12" t="s">
+      <c r="K13" s="15"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="12" t="s">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="10" t="s">
+      <c r="G14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="10" t="s">
+      <c r="J14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="12" t="s">
+      <c r="N14" s="15"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="10" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="12" t="s">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="G16" s="7" t="s">
+      <c r="E16" s="15"/>
+      <c r="G16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="J16" s="7" t="s">
+      <c r="H16" s="15"/>
+      <c r="J16" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="M16" s="7" t="s">
+      <c r="K16" s="15"/>
+      <c r="M16" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="N16" s="8"/>
-      <c r="P16" s="7" t="s">
+      <c r="N16" s="15"/>
+      <c r="P16" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="Q16" s="8"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="10" t="s">
+      <c r="J17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N17" s="10" t="s">
+      <c r="M17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="P17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="10" t="s">
+      <c r="P17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="12" t="s">
+      <c r="P18" s="7"/>
+      <c r="Q18" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="12" t="s">
+      <c r="M19" s="7"/>
+      <c r="N19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="21" x14ac:dyDescent="0.4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="G20" s="5" t="s">
+      <c r="E20" s="17"/>
+      <c r="G20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12" t="s">
+      <c r="H20" s="17"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="12" t="s">
+      <c r="P20" s="7"/>
+      <c r="Q20" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="G21" s="7" t="s">
+      <c r="E21" s="15"/>
+      <c r="G21" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12" t="s">
+      <c r="H21" s="15"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="12" t="s">
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="D22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="B22" s="15"/>
+      <c r="D22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="G22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>61</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="12" t="s">
+      <c r="M22" s="7"/>
+      <c r="N22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q22" s="8"/>
+      <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="12" t="s">
+      <c r="M23" s="7"/>
+      <c r="N23" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="10" t="s">
+      <c r="P23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="G24" s="7" t="s">
+      <c r="E24" s="15"/>
+      <c r="G24" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12" t="s">
+      <c r="H24" s="15"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="12" t="s">
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="10" t="s">
+      <c r="G25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>64</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="12" t="s">
+      <c r="M25" s="7"/>
+      <c r="N25" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="12" t="s">
+      <c r="P25" s="7"/>
+      <c r="Q25" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="G26" s="7" t="s">
+      <c r="E26" s="15"/>
+      <c r="G26" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="12" t="s">
+      <c r="H26" s="15"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="12" t="s">
+      <c r="P26" s="7"/>
+      <c r="Q26" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="D27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="10" t="s">
+      <c r="G27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>66</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="12" t="s">
+      <c r="M27" s="7"/>
+      <c r="N27" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="12" t="s">
+      <c r="P27" s="7"/>
+      <c r="Q27" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="N28" s="8"/>
-      <c r="P28" s="7" t="s">
+      <c r="N28" s="15"/>
+      <c r="P28" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="Q28" s="8"/>
+      <c r="Q28" s="15"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="G29" s="7" t="s">
+      <c r="E29" s="15"/>
+      <c r="G29" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="M29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N29" s="10" t="s">
+      <c r="H29" s="15"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="M29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="P29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="10" t="s">
+      <c r="P29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="10" t="s">
+      <c r="G30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>68</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="12" t="s">
+      <c r="M30" s="7"/>
+      <c r="N30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="14"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12" t="s">
+      <c r="B31" s="15"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="12" t="s">
+      <c r="M31" s="7"/>
+      <c r="N31" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="G32" s="7" t="s">
+      <c r="E32" s="15"/>
+      <c r="G32" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="12" t="s">
+      <c r="H32" s="15"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="10" t="s">
+      <c r="G33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>70</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="12" t="s">
+      <c r="M33" s="7"/>
+      <c r="N33" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="12" t="s">
+      <c r="M34" s="7"/>
+      <c r="N34" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="G35" s="7" t="s">
+      <c r="E35" s="15"/>
+      <c r="G35" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="12" t="s">
+      <c r="H35" s="15"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="D36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="10" t="s">
+      <c r="G36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="12" t="s">
+      <c r="M36" s="7"/>
+      <c r="N36" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="12" t="s">
+      <c r="M37" s="7"/>
+      <c r="N37" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="12" t="s">
+      <c r="M38" s="7"/>
+      <c r="N38" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="12" t="s">
+      <c r="M39" s="7"/>
+      <c r="N39" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="M40" s="7" t="s">
+      <c r="B40" s="15"/>
+      <c r="M40" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="N40" s="8"/>
+      <c r="N40" s="15"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N41" s="10" t="s">
+      <c r="M41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N41" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="12" t="s">
+      <c r="M42" s="7"/>
+      <c r="N42" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M43" s="11"/>
-      <c r="N43" s="12" t="s">
+      <c r="M43" s="7"/>
+      <c r="N43" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="12" t="s">
+      <c r="B44" s="15"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M45" s="11"/>
-      <c r="N45" s="12" t="s">
+      <c r="M45" s="7"/>
+      <c r="N45" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="12" t="s">
+      <c r="B46" s="15"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="10" t="s">
+      <c r="A47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M47" s="11"/>
-      <c r="N47" s="12" t="s">
+      <c r="M47" s="7"/>
+      <c r="N47" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="12" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="49" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M49" s="11"/>
-      <c r="N49" s="12" t="s">
+      <c r="M49" s="7"/>
+      <c r="N49" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="50" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M50" s="11"/>
-      <c r="N50" s="12" t="s">
+      <c r="M50" s="7"/>
+      <c r="N50" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M51" s="11"/>
-      <c r="N51" s="12" t="s">
+      <c r="M51" s="7"/>
+      <c r="N51" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="52" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M52" s="7" t="s">
+      <c r="M52" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="N52" s="8"/>
+      <c r="N52" s="15"/>
     </row>
     <row r="53" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M53" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N53" s="10" t="s">
+      <c r="M53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N53" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="13:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M54" s="13"/>
-      <c r="N54" s="14"/>
+    <row r="54" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M54" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="N54" s="19"/>
+    </row>
+    <row r="55" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M56" s="7"/>
+      <c r="N56" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="13:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M57" s="9"/>
+      <c r="N57" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G32:H32"/>
+  <mergeCells count="59">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D35:E35"/>
@@ -1999,20 +2021,34 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
@@ -2115,8 +2151,10 @@
     <hyperlink ref="Q23" r:id="rId98"/>
     <hyperlink ref="P29" r:id="rId99"/>
     <hyperlink ref="Q29" r:id="rId100"/>
+    <hyperlink ref="M55" r:id="rId101"/>
+    <hyperlink ref="N55" r:id="rId102"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId101"/>
+  <pageSetup orientation="portrait" r:id="rId103"/>
 </worksheet>
 </file>